--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042D74F9-BD81-4FC3-8951-39D585A6B48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{30AA0812-8EB4-4A43-B152-FA12F4B99A8C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1590" windowWidth="23250" windowHeight="14730" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
+    <workbookView windowHeight="14730" windowWidth="23250" xWindow="1890" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="1590"/>
   </bookViews>
   <sheets>
-    <sheet name="NumberError" sheetId="1" r:id="rId1"/>
+    <sheet name="NumberError" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="117">
   <si>
     <t>Result</t>
   </si>
@@ -113,9 +113,6 @@
     <t>123456789</t>
   </si>
   <si>
-    <t>Thu Nov 03 15:36:10 EDT 2022</t>
-  </si>
-  <si>
     <t>Thu Nov 03 15:36:23 EDT 2022</t>
   </si>
   <si>
@@ -156,12 +153,247 @@
   </si>
   <si>
     <t>Thu Nov 03 15:38:41 EDT 2022</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:54:46 EDT 2022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:55:33 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:55:45 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:55:55 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:56:05 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:56:15 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:56:25 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:56:35 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:56:44 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:56:54 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:57:03 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:57:13 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:57:23 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:57:33 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:57:42 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Nov 04 15:57:52 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:08:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:09:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:09:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:09:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:09:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:09:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:09:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:10:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:10:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:10:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:10:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:10:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:10:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:11:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:11:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:40:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:40:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:40:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:40:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:40:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:40:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:41:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:41:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:41:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:41:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:41:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:41:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:42:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:42:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:42:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:33:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:33:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:34:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:34:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:34:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:34:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:34:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:34:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:35:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:35:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:35:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:35:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:35:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:35:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:36:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:50:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:50:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:50:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:50:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:51:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:51:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:51:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:51:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:51:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:51:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:52:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:52:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:52:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:52:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:52:40 EST 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,20 +436,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -234,10 +466,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -272,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -324,7 +556,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -435,21 +667,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -466,7 +698,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -518,30 +750,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
-    <col min="4" max="4" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="55.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.85546875" collapsed="true"/>
+    <col min="3" max="3" style="2" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="35.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="16.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="55.28515625" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -572,9 +804,11 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
@@ -593,9 +827,11 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
@@ -614,9 +850,11 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -635,9 +873,11 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -656,9 +896,11 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
@@ -677,9 +919,11 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
@@ -698,9 +942,11 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
@@ -719,9 +965,11 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
@@ -740,9 +988,11 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
@@ -761,9 +1011,11 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,9 +1034,11 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
@@ -803,9 +1057,11 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
@@ -824,9 +1080,11 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,9 +1103,11 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,9 +1126,11 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
@@ -883,7 +1145,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="147">
   <si>
     <t>Result</t>
   </si>
@@ -387,6 +387,96 @@
   </si>
   <si>
     <t>Mon Jan 09 17:52:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:05:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:05:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:05:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:05:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:05:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:05:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:05:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:06:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:06:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:06:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:06:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:06:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:06:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:07:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:07:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:44:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:44:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:44:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:44:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:44:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:44:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:45:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:45:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:45:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:45:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:45:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:45:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:46:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:46:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:46:26 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -804,7 +894,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -827,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -850,7 +940,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -873,7 +963,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -896,7 +986,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -919,7 +1009,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -942,7 +1032,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -965,7 +1055,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -988,7 +1078,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -1011,7 +1101,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -1034,7 +1124,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
@@ -1057,7 +1147,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
@@ -1080,7 +1170,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>39</v>
@@ -1103,7 +1193,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
@@ -1126,7 +1216,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>39</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="162">
   <si>
     <t>Result</t>
   </si>
@@ -477,6 +477,51 @@
   </si>
   <si>
     <t>Wed Feb 08 16:46:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:47:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:47:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:47:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:47:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:47:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:47:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:47:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:48:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:48:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:48:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:48:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:48:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:48:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:49:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:49:10 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -894,7 +939,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -917,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -940,7 +985,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -963,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -986,7 +1031,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -1009,7 +1054,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -1032,7 +1077,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -1055,7 +1100,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -1078,7 +1123,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -1101,7 +1146,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -1124,7 +1169,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
@@ -1147,7 +1192,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
@@ -1170,7 +1215,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>39</v>
@@ -1193,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
@@ -1216,7 +1261,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>39</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="177">
   <si>
     <t>Result</t>
   </si>
@@ -522,6 +522,51 @@
   </si>
   <si>
     <t>Wed Feb 15 12:49:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:14:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:14:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:14:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:14:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:14:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:14:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:15:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:15:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:15:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:15:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:15:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:15:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:16:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:16:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:16:21 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -939,7 +984,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -962,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -985,7 +1030,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -1008,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -1031,7 +1076,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -1054,7 +1099,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -1077,7 +1122,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -1100,7 +1145,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -1123,7 +1168,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -1146,7 +1191,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -1169,7 +1214,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
@@ -1192,7 +1237,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
@@ -1215,7 +1260,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>39</v>
@@ -1238,7 +1283,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
@@ -1261,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>39</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="192">
   <si>
     <t>Result</t>
   </si>
@@ -567,6 +567,51 @@
   </si>
   <si>
     <t>Thu Feb 16 12:16:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:57:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:57:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:57:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:58:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:58:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:58:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:58:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:58:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:58:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:58:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:59:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:59:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:59:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:59:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:59:43 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1029,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -1007,7 +1052,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -1030,7 +1075,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -1053,7 +1098,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -1076,7 +1121,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -1099,7 +1144,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -1122,7 +1167,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -1145,7 +1190,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -1168,7 +1213,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -1191,7 +1236,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -1214,7 +1259,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
@@ -1237,7 +1282,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
@@ -1260,7 +1305,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>39</v>
@@ -1283,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
@@ -1306,7 +1351,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>39</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="252">
   <si>
     <t>Result</t>
   </si>
@@ -612,6 +612,186 @@
   </si>
   <si>
     <t>Tue Jul 11 12:59:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:48:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:48:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:49:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:49:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:49:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:49:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:49:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:49:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:49:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:50:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:50:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:50:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:50:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:50:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 10:50:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:12:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:12:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:12:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:12:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:12:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:12:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:13:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:13:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:13:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:13:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:13:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:13:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:13:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:14:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:14:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:21:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:21:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:22:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:22:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:22:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:22:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:22:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:22:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:23:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:23:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:23:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:23:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:23:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:23:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:23:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:14:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:14:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:14:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:14:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:14:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:14:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:15:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:15:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:15:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:15:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:15:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:15:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:15:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:16:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:16:13 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1209,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -1052,7 +1232,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -1075,7 +1255,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -1098,7 +1278,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -1121,7 +1301,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -1144,7 +1324,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -1167,7 +1347,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -1190,7 +1370,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -1213,7 +1393,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -1236,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -1259,7 +1439,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
@@ -1282,7 +1462,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
@@ -1305,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>39</v>
@@ -1328,7 +1508,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
@@ -1351,7 +1531,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>39</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04550FD0-FCC4-4A41-AF22-50C9787C9935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{522DE480-86C3-4D9E-848E-7A99F091A816}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="NumberError" sheetId="1" r:id="rId1"/>
+    <sheet name="NumberError" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="44">
   <si>
     <t>Result</t>
   </si>
@@ -53,27 +53,12 @@
     <t>TaxTypeEL</t>
   </si>
   <si>
-    <t>Existing Liability</t>
-  </si>
-  <si>
-    <t>Bay Restoration Fund Tax</t>
-  </si>
-  <si>
-    <t>CORP Tax</t>
-  </si>
-  <si>
     <t>Fiduciary Tax</t>
   </si>
   <si>
-    <t>Personal Tax</t>
-  </si>
-  <si>
     <t>Sales &amp; Use Tax</t>
   </si>
   <si>
-    <t>Tire Fee Tax</t>
-  </si>
-  <si>
     <t>Withholding Tax</t>
   </si>
   <si>
@@ -98,73 +83,98 @@
     <t>Notice number length has to be 13 numeric characters</t>
   </si>
   <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Existing Liability w/Notice Number</t>
+  </si>
+  <si>
+    <t>Bay Restoration Fee</t>
+  </si>
+  <si>
+    <t>Corporate Income Tax</t>
+  </si>
+  <si>
+    <t>Personal Income Tax</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing S Corp</t>
+  </si>
+  <si>
+    <t>Tire Recycling Fee</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing S Corp</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:14:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:14:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:14:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:14:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:14:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:14:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:15:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:15:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:15:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:15:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:15:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:15:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:16:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:16:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>PTE (510 LLC) Tax</t>
-  </si>
-  <si>
-    <t>PTE (510 SCorp) Tax</t>
-  </si>
-  <si>
-    <t>PTEE (511 LLC) Tax</t>
-  </si>
-  <si>
-    <t>PTEE (511 SCorp) Tax</t>
+    <t>Sun Sep 03 16:19:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:19:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:19:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:19:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:20:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:20:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:20:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:20:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:20:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:20:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:21:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:21:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:21:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:21:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:21:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:21:51 EDT 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,20 +217,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -237,10 +247,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -275,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -327,7 +337,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -438,21 +448,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -469,7 +479,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -521,30 +531,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E17"/>
+      <selection activeCell="A2" sqref="A2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
-    <col min="4" max="4" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="55.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.85546875" collapsed="true"/>
+    <col min="3" max="3" style="2" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="48.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="42.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="16.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="55.28515625" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -564,375 +574,383 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{522DE480-86C3-4D9E-848E-7A99F091A816}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{52C79347-470B-4D6A-B8EA-833F892A5823}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="-120"/>
+    <workbookView windowHeight="10740" windowWidth="18915" xWindow="7830" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="3435"/>
   </bookViews>
   <sheets>
     <sheet name="NumberError" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="93">
   <si>
     <t>Result</t>
   </si>
@@ -53,9 +53,114 @@
     <t>TaxTypeEL</t>
   </si>
   <si>
+    <t>NotiInvoNumber</t>
+  </si>
+  <si>
+    <t>12345678901</t>
+  </si>
+  <si>
+    <t>123456789012</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>Invoice number length has to be 10 or 13 numeric characters</t>
+  </si>
+  <si>
+    <t>Notice number length has to be 13 numeric characters</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Existing Liability w/Notice Number</t>
+  </si>
+  <si>
+    <t>Bay Restoration Fee</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing S Corp</t>
+  </si>
+  <si>
+    <t>Tire Recycling Fee</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing S Corp</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:20:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:20:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:20:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:20:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:20:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:20:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:21:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:21:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:21:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:21:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:21:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:21:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:22:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:22:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:22:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 07 12:22:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Corporate Income Tax</t>
+  </si>
+  <si>
     <t>Fiduciary Tax</t>
   </si>
   <si>
+    <t>Personal Income Tax</t>
+  </si>
+  <si>
     <t>Sales &amp; Use Tax</t>
   </si>
   <si>
@@ -65,109 +170,151 @@
     <t>Alcohol Tax</t>
   </si>
   <si>
-    <t>NotiInvoNumber</t>
-  </si>
-  <si>
-    <t>12345678901</t>
-  </si>
-  <si>
-    <t>123456789012</t>
-  </si>
-  <si>
-    <t>ErrorMessage</t>
-  </si>
-  <si>
-    <t>Invoice number length has to be 10 or 13 numeric characters</t>
-  </si>
-  <si>
-    <t>Notice number length has to be 13 numeric characters</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Existing Liability w/Notice Number</t>
-  </si>
-  <si>
-    <t>Bay Restoration Fee</t>
-  </si>
-  <si>
-    <t>Corporate Income Tax</t>
-  </si>
-  <si>
-    <t>Personal Income Tax</t>
-  </si>
-  <si>
-    <t>PTE Non-Electing Non-S Corp</t>
-  </si>
-  <si>
-    <t>PTE Non-Electing S Corp</t>
-  </si>
-  <si>
-    <t>Tire Recycling Fee</t>
-  </si>
-  <si>
-    <t>PTE Tax Electing Non-S Corp</t>
-  </si>
-  <si>
-    <t>PTE Tax Electing S Corp</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:19:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:19:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:19:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:19:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:20:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:20:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:20:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:20:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:20:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:20:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:21:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:21:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:21:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:21:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:21:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:21:51 EDT 2023</t>
+    <t>Fri Sep 08 12:30:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:30:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:31:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:31:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:31:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:31:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:31:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:31:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:32:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:32:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:32:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:32:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:32:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:32:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:33:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:33:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:22:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:22:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:22:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:22:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:22:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:22:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:23:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:23:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:23:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:23:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:23:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:24:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:24:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:24:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:24:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:24:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:59:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:00:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:00:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:00:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:00:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:00:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:01:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:01:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:01:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:01:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:01:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:01:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:02:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:02:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:02:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:02:39 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -542,7 +689,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,378 +721,378 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="141">
   <si>
     <t>Result</t>
   </si>
@@ -315,6 +315,150 @@
   </si>
   <si>
     <t>Fri Sep 08 18:02:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:43:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:44:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:44:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:44:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:44:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:44:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:44:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:45:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:45:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:45:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:45:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:45:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:45:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:46:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:46:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:46:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:55:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:55:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:55:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:55:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:55:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:56:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:56:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:56:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:56:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:56:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:56:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:57:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:57:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:57:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:57:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:57:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:53:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:53:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:54:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:54:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:54:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:54:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:54:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:54:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:55:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:55:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:55:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:55:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:55:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:55:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:56:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:56:12 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -732,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -755,7 +899,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -778,7 +922,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -801,7 +945,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -824,7 +968,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -847,7 +991,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -870,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -893,7 +1037,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -916,7 +1060,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -939,7 +1083,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -962,7 +1106,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -985,7 +1129,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1008,7 +1152,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1031,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1054,7 +1198,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -1077,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="157">
   <si>
     <t>Result</t>
   </si>
@@ -459,6 +459,54 @@
   </si>
   <si>
     <t>Mon Sep 11 13:56:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:18:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:18:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:18:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:18:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:18:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:19:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:19:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:19:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:19:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:19:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:19:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:20:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:20:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:20:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:20:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:20:48 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -876,7 +924,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -899,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -922,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -945,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -968,7 +1016,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -991,7 +1039,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1014,7 +1062,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1037,7 +1085,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1060,7 +1108,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1083,7 +1131,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1106,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1129,7 +1177,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1152,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1175,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1198,7 +1246,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -1221,7 +1269,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="189">
   <si>
     <t>Result</t>
   </si>
@@ -507,6 +507,102 @@
   </si>
   <si>
     <t>Tue Sep 26 21:20:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:54:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:54:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:55:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:55:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:55:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:55:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:55:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:55:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:56:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:56:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:56:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:56:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:56:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:56:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:57:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 27 21:57:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:27:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:27:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:27:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:27:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:27:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:28:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:28:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:28:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:28:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:28:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:28:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:29:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:29:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:29:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:29:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:29:44 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -924,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -947,7 +1043,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -970,7 +1066,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -993,7 +1089,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1016,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1039,7 +1135,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1062,7 +1158,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1085,7 +1181,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1108,7 +1204,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1131,7 +1227,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1154,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1177,7 +1273,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1200,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1223,7 +1319,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1246,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -1269,7 +1365,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="221">
   <si>
     <t>Result</t>
   </si>
@@ -603,6 +603,102 @@
   </si>
   <si>
     <t>Fri Sep 29 11:29:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:25:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:25:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:25:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:25:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:25:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:25:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:26:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:26:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:26:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:26:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:26:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:26:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:27:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:27:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:27:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:27:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:33:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:33:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:34:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:34:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:34:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:34:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:34:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:34:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:35:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:35:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:35:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:35:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:35:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:35:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:35:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:36:09 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1116,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1043,7 +1139,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1066,7 +1162,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1089,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1112,7 +1208,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1135,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1158,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1181,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1204,7 +1300,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1227,7 +1323,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1250,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1273,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1296,7 +1392,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1319,7 +1415,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1342,7 +1438,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -1365,7 +1461,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="237">
   <si>
     <t>Result</t>
   </si>
@@ -699,6 +699,54 @@
   </si>
   <si>
     <t>Mon Oct 02 16:36:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:20:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:20:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:20:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:21:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:21:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:21:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:21:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:21:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:21:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:22:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:22:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:22:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:22:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:22:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:22:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:23:05 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1139,7 +1187,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1162,7 +1210,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1185,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1208,7 +1256,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1231,7 +1279,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1254,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1277,7 +1325,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1300,7 +1348,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1323,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1346,7 +1394,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1369,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1392,7 +1440,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1415,7 +1463,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1438,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -1461,7 +1509,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="253">
   <si>
     <t>Result</t>
   </si>
@@ -747,6 +747,54 @@
   </si>
   <si>
     <t>Fri Oct 06 11:23:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:37:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:37:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:37:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:37:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:37:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:38:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:38:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:38:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:38:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:38:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:38:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:38:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:39:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:39:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:39:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:39:37 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1212,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1187,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1210,7 +1258,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1233,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1256,7 +1304,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1279,7 +1327,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1302,7 +1350,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1325,7 +1373,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1348,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1371,7 +1419,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1394,7 +1442,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1417,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1440,7 +1488,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1463,7 +1511,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1486,7 +1534,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -1509,7 +1557,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="285">
   <si>
     <t>Result</t>
   </si>
@@ -795,6 +795,102 @@
   </si>
   <si>
     <t>Mon Oct 09 22:39:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:58:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:58:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:58:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:58:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:58:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:59:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:59:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:59:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:59:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:59:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:59:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:59:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:00:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:00:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:00:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:00:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:43:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:43:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:43:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:43:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:44:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:44:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:44:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:44:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:44:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:44:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:45:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:45:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:45:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:45:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:45:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:45:49 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1308,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1235,7 +1331,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1258,7 +1354,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1281,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1304,7 +1400,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1327,7 +1423,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1350,7 +1446,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1373,7 +1469,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1396,7 +1492,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1419,7 +1515,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1442,7 +1538,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1465,7 +1561,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1488,7 +1584,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1511,7 +1607,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1534,7 +1630,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -1557,7 +1653,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="301">
   <si>
     <t>Result</t>
   </si>
@@ -891,6 +891,54 @@
   </si>
   <si>
     <t>Wed Nov 01 15:45:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:34:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:34:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:35:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:35:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:35:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:35:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:35:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:35:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:35:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:36:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:36:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:36:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:36:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:36:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:36:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:36:59 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1356,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1331,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1354,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1377,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1400,7 +1448,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1423,7 +1471,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1446,7 +1494,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1469,7 +1517,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1492,7 +1540,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1515,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1538,7 +1586,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1561,7 +1609,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1584,7 +1632,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1607,7 +1655,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1630,7 +1678,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -1653,7 +1701,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FF28F5-A774-4574-BF9A-B099397BF1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7684F7CF-1EDB-4F65-B9CB-2D0318F01326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
+    <workbookView xWindow="3525" yWindow="1650" windowWidth="18810" windowHeight="14565" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
   </bookViews>
   <sheets>
     <sheet name="NumberError" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
   <si>
     <t>Result</t>
   </si>
@@ -65,12 +65,6 @@
     <t>ErrorMessage</t>
   </si>
   <si>
-    <t>Invoice number length has to be 10 or 13 numeric characters</t>
-  </si>
-  <si>
-    <t>Notice number length has to be 13 numeric characters</t>
-  </si>
-  <si>
     <t>123456789</t>
   </si>
   <si>
@@ -119,54 +113,6 @@
     <t>Alcohol Tax</t>
   </si>
   <si>
-    <t>Thu Dec 07 21:34:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:34:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:35:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:35:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:35:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:35:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:35:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:35:47 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:35:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:36:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:36:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:36:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:36:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:36:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:36:50 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:36:59 EST 2023</t>
-  </si>
-  <si>
     <t>0000000000000</t>
   </si>
   <si>
@@ -177,6 +123,96 @@
   </si>
   <si>
     <t>Invoice Number must be 10 or 13 digits in length, with a value greater than zero</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:46:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:46:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:47:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:47:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:47:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:47:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:47:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:47:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:48:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:48:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:48:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:48:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:48:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:48:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:49:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:49:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:49:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:49:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:49:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:49:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:50:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:50:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:50:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:50:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:50:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:50:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:51:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:51:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:51:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:51:29 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -549,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,636 +626,692 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7684F7CF-1EDB-4F65-B9CB-2D0318F01326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A36DC4-16A4-4D51-BCA4-4B212B5FB9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="1650" windowWidth="18810" windowHeight="14565" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
+    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="17640" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
   </bookViews>
   <sheets>
     <sheet name="NumberError" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="67">
   <si>
     <t>Result</t>
   </si>
@@ -213,6 +213,30 @@
   </si>
   <si>
     <t>Wed Dec 20 12:51:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Admissions and Amusement Tax</t>
+  </si>
+  <si>
+    <t>Estate Tax</t>
+  </si>
+  <si>
+    <t>Motor Fuel Tax</t>
+  </si>
+  <si>
+    <t>Slots License Fee</t>
+  </si>
+  <si>
+    <t>Tobacco Tax</t>
+  </si>
+  <si>
+    <t>Transportation Network Services</t>
+  </si>
+  <si>
+    <t>Unclaimed Property</t>
+  </si>
+  <si>
+    <t>IFTA Tax</t>
   </si>
 </sst>
 </file>
@@ -583,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,9 +619,9 @@
     <col min="2" max="2" width="27.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
     <col min="4" max="4" width="48.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="42.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="71.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="53.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="80.5703125" style="2" customWidth="1" collapsed="1"/>
     <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1311,6 +1335,278 @@
         <v>25</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A36DC4-16A4-4D51-BCA4-4B212B5FB9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{49A36DC4-16A4-4D51-BCA4-4B212B5FB9FE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="17640" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="1605"/>
   </bookViews>
   <sheets>
-    <sheet name="NumberError" sheetId="1" r:id="rId1"/>
+    <sheet name="NumberError" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="160">
   <si>
     <t>Result</t>
   </si>
@@ -237,12 +237,292 @@
   </si>
   <si>
     <t>IFTA Tax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:49:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:49:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:49:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:49:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:50:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:50:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:50:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:50:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:50:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:50:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:50:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:51:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:51:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:51:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:51:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:51:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:51:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:51:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:52:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:52:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:52:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:52:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:52:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:52:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:53:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:53:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:53:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:53:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:53:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:53:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:53:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:54:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:54:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:54:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:54:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:54:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:54:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:55:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:55:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:55:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:55:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:55:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:55:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:55:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:56:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:56:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:16:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:16:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:16:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:16:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:17:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:17:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:17:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:17:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:17:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:17:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:18:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:18:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:18:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:18:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:18:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:18:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:18:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:19:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:19:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:19:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:19:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:19:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:19:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:20:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:20:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:20:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:20:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:20:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:20:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:20:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:21:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:21:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:21:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:21:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:21:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:21:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:22:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:22:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:22:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:22:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:22:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:22:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:22:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:23:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:23:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:23:24 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,20 +565,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -315,10 +595,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -353,7 +633,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -405,7 +685,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -516,21 +796,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -547,7 +827,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -599,15 +879,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
@@ -615,14 +895,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
-    <col min="4" max="4" width="48.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="53.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="80.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.85546875" collapsed="true"/>
+    <col min="3" max="3" style="2" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="48.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="53.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="26.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="80.5703125" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -676,7 +956,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -699,7 +979,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -722,7 +1002,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -745,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -768,7 +1048,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -791,7 +1071,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -814,7 +1094,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -837,7 +1117,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -860,7 +1140,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -883,7 +1163,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -906,7 +1186,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -929,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -952,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -975,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -998,7 +1278,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -1021,7 +1301,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -1044,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1067,7 +1347,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -1090,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
@@ -1113,7 +1393,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -1136,7 +1416,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1159,7 +1439,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
@@ -1182,7 +1462,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -1205,7 +1485,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -1228,7 +1508,7 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -1251,7 +1531,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
@@ -1274,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -1297,7 +1577,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
@@ -1320,7 +1600,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
@@ -1339,6 +1619,12 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
@@ -1356,6 +1642,12 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1373,6 +1665,12 @@
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -1390,6 +1688,12 @@
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
@@ -1407,6 +1711,12 @@
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1424,6 +1734,12 @@
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
@@ -1441,6 +1757,12 @@
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
@@ -1458,6 +1780,12 @@
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1475,6 +1803,12 @@
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
@@ -1492,6 +1826,12 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
       </c>
@@ -1509,6 +1849,12 @@
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
@@ -1526,6 +1872,12 @@
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
       </c>
@@ -1543,6 +1895,12 @@
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>156</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
@@ -1560,6 +1918,12 @@
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>157</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
       </c>
@@ -1577,6 +1941,12 @@
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
       </c>
@@ -1594,6 +1964,12 @@
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
@@ -1611,8 +1987,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="206">
   <si>
     <t>Result</t>
   </si>
@@ -516,6 +516,144 @@
   </si>
   <si>
     <t>Sun Jan 14 16:23:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:29:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:29:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:29:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:30:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:30:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:30:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:30:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:30:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:30:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:31:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:31:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:31:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:31:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:31:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:31:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:32:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:32:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:32:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:32:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:32:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:32:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:33:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:33:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:33:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:33:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:33:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:33:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:34:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:34:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:34:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:34:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:34:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:34:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:34:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:35:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:35:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:35:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:35:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:35:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:35:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:36:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:36:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:36:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:36:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:36:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:36:54 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -933,7 +1071,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -956,7 +1094,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -979,7 +1117,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1002,7 +1140,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1025,7 +1163,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1048,7 +1186,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -1071,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -1094,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -1117,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -1140,7 +1278,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -1163,7 +1301,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -1186,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -1209,7 +1347,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -1232,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -1255,7 +1393,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -1278,7 +1416,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -1301,7 +1439,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -1324,7 +1462,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1347,7 +1485,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -1370,7 +1508,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
@@ -1393,7 +1531,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -1416,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1439,7 +1577,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
@@ -1462,7 +1600,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -1485,7 +1623,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -1508,7 +1646,7 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -1531,7 +1669,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
@@ -1554,7 +1692,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -1577,7 +1715,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
@@ -1600,7 +1738,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
@@ -1623,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
@@ -1646,7 +1784,7 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
@@ -1669,7 +1807,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
@@ -1692,7 +1830,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
@@ -1715,7 +1853,7 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
@@ -1738,7 +1876,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
@@ -1761,7 +1899,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -1784,7 +1922,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
@@ -1807,7 +1945,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
@@ -1830,7 +1968,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
@@ -1853,7 +1991,7 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>10</v>
@@ -1876,7 +2014,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
@@ -1899,7 +2037,7 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -1922,7 +2060,7 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
@@ -1945,7 +2083,7 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
@@ -1968,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{49A36DC4-16A4-4D51-BCA4-4B212B5FB9FE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCB6278-44B4-4958-A1F4-B93D94881201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="1605"/>
+    <workbookView xWindow="2220" yWindow="2325" windowWidth="24525" windowHeight="14010" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
   </bookViews>
   <sheets>
-    <sheet name="NumberError" r:id="rId1" sheetId="1"/>
+    <sheet name="NumberError" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="83">
   <si>
     <t>Result</t>
   </si>
@@ -125,96 +125,6 @@
     <t>Invoice Number must be 10 or 13 digits in length, with a value greater than zero</t>
   </si>
   <si>
-    <t>Wed Dec 20 12:46:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:46:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:47:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:47:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:47:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:47:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:47:47 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:47:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:48:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:48:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:48:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:48:34 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:48:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:48:54 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:49:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:49:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:49:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:49:35 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:49:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:49:54 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:50:03 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:50:13 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:50:22 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:50:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:50:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:50:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:51:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:51:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:51:20 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:51:29 EST 2023</t>
-  </si>
-  <si>
     <t>Admissions and Amusement Tax</t>
   </si>
   <si>
@@ -239,285 +149,6 @@
     <t>IFTA Tax</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:49:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:49:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:49:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:49:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:50:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:50:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:50:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:50:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:50:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:50:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:50:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:51:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:51:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:51:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:51:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:51:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:51:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:51:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:52:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:52:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:52:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:52:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:52:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:52:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:53:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:53:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:53:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:53:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:53:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:53:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:53:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:54:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:54:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:54:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:54:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:54:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:54:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:55:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:55:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:55:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:55:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:55:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:55:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:55:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:56:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:56:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:16:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:16:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:16:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:16:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:17:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:17:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:17:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:17:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:17:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:17:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:18:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:18:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:18:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:18:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:18:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:18:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:18:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:19:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:19:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:19:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:19:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:19:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:19:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:20:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:20:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:20:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:20:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:20:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:20:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:20:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:21:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:21:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:21:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:21:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:21:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:21:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:22:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:22:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:22:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:22:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:22:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:22:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:22:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:23:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:23:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:23:24 EST 2024</t>
-  </si>
-  <si>
     <t>Thu Jan 25 17:29:39 EST 2024</t>
   </si>
   <si>
@@ -611,9 +242,6 @@
     <t>Thu Jan 25 17:34:30 EST 2024</t>
   </si>
   <si>
-    <t>Thu Jan 25 17:34:40 EST 2024</t>
-  </si>
-  <si>
     <t>Thu Jan 25 17:34:50 EST 2024</t>
   </si>
   <si>
@@ -635,9 +263,6 @@
     <t>Thu Jan 25 17:35:48 EST 2024</t>
   </si>
   <si>
-    <t>Thu Jan 25 17:35:57 EST 2024</t>
-  </si>
-  <si>
     <t>Thu Jan 25 17:36:07 EST 2024</t>
   </si>
   <si>
@@ -654,13 +279,18 @@
   </si>
   <si>
     <t>Thu Jan 25 17:36:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 17:25:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 17:25:12 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -703,20 +333,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -733,10 +363,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -771,7 +401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -823,7 +453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -934,21 +564,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -965,7 +595,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1017,30 +647,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.85546875" collapsed="true"/>
-    <col min="3" max="3" style="2" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="48.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="53.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="26.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="80.5703125" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
+    <col min="4" max="4" width="48.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="53.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="80.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1094,7 +724,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1117,7 +747,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1140,7 +770,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1163,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1186,7 +816,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -1209,7 +839,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -1232,7 +862,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -1255,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -1278,7 +908,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -1301,7 +931,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -1324,7 +954,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -1347,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -1370,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -1393,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -1416,7 +1046,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -1439,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -1462,7 +1092,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1485,7 +1115,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -1508,7 +1138,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
@@ -1531,7 +1161,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -1554,7 +1184,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1577,7 +1207,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
@@ -1600,7 +1230,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -1623,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -1646,7 +1276,7 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -1669,7 +1299,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
@@ -1692,7 +1322,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -1715,7 +1345,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
@@ -1738,7 +1368,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
@@ -1761,7 +1391,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
@@ -1770,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1779,12 +1409,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
@@ -1793,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1802,12 +1432,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
@@ -1816,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1825,12 +1455,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
@@ -1839,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1848,12 +1478,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
@@ -1862,7 +1492,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1871,12 +1501,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
@@ -1885,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1894,12 +1524,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -1908,7 +1538,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1917,12 +1547,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
@@ -1931,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1940,12 +1570,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
@@ -1954,7 +1584,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>25</v>
@@ -1963,12 +1593,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
@@ -1977,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>25</v>
@@ -1986,12 +1616,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>10</v>
@@ -2000,7 +1630,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>25</v>
@@ -2009,12 +1639,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
@@ -2023,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>25</v>
@@ -2032,12 +1662,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -2046,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>25</v>
@@ -2055,12 +1685,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
@@ -2069,7 +1699,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>25</v>
@@ -2078,12 +1708,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
@@ -2092,7 +1722,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>25</v>
@@ -2101,12 +1731,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>10</v>
@@ -2115,7 +1745,7 @@
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>25</v>
@@ -2125,8 +1755,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCB6278-44B4-4958-A1F4-B93D94881201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4DCB6278-44B4-4958-A1F4-B93D94881201}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2325" windowWidth="24525" windowHeight="14010" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="2220" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="2325"/>
   </bookViews>
   <sheets>
-    <sheet name="NumberError" sheetId="1" r:id="rId1"/>
+    <sheet name="NumberError" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="130">
   <si>
     <t>Result</t>
   </si>
@@ -285,12 +285,154 @@
   </si>
   <si>
     <t>Fri Feb 02 17:25:12 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:07:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:08:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:08:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:08:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:08:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:08:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:08:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:09:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:09:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:09:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:09:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:09:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:09:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:10:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:10:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:10:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:10:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:10:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:10:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:11:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:11:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:11:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:11:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:11:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:12:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:12:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:12:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:12:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:12:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:12:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:13:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:13:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:13:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:13:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:13:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:13:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:14:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:14:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:14:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:14:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:14:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:15:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:15:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:15:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:15:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:15:42 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,20 +475,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -363,10 +505,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -401,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -453,7 +595,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -564,21 +706,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -595,7 +737,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -647,15 +789,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C27" sqref="C27:C47"/>
@@ -663,14 +805,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
-    <col min="4" max="4" width="48.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="53.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="80.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.85546875" collapsed="true"/>
+    <col min="3" max="3" style="2" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="48.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="53.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="26.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="80.5703125" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -701,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -724,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -747,7 +889,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -770,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -793,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -816,7 +958,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -839,7 +981,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -862,7 +1004,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -885,7 +1027,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -908,7 +1050,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -931,7 +1073,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -954,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -977,7 +1119,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -1000,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -1023,7 +1165,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -1046,7 +1188,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -1069,7 +1211,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -1092,7 +1234,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1115,7 +1257,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -1138,7 +1280,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
@@ -1161,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -1184,7 +1326,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1207,7 +1349,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
@@ -1230,7 +1372,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -1253,7 +1395,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -1276,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -1299,7 +1441,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
@@ -1322,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -1345,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
@@ -1368,7 +1510,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
@@ -1391,7 +1533,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
@@ -1414,7 +1556,7 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
@@ -1437,7 +1579,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
@@ -1460,7 +1602,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
@@ -1483,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
@@ -1506,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
@@ -1529,7 +1671,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -1552,7 +1694,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
@@ -1575,7 +1717,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
@@ -1598,7 +1740,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
@@ -1621,7 +1763,7 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>10</v>
@@ -1644,7 +1786,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
@@ -1667,7 +1809,7 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -1690,7 +1832,7 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
@@ -1713,7 +1855,7 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
@@ -1736,7 +1878,7 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>10</v>
@@ -1755,8 +1897,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="176">
   <si>
     <t>Result</t>
   </si>
@@ -426,6 +426,144 @@
   </si>
   <si>
     <t>Sat Feb 03 23:15:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:37:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:37:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:37:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:38:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:38:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:38:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:38:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:38:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:38:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:39:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:39:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:39:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:39:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:39:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:39:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:39:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:40:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:40:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:40:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:40:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:40:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:40:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:41:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:41:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:41:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:41:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:41:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:41:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:41:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:42:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:42:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:42:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:42:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:42:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:42:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:43:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:43:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:43:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:43:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:43:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:43:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:43:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:44:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:44:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:44:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:44:35 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -843,7 +981,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -866,7 +1004,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -889,7 +1027,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -912,7 +1050,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -935,7 +1073,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -958,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -981,7 +1119,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -1004,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -1027,7 +1165,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -1050,7 +1188,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -1073,7 +1211,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -1096,7 +1234,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -1119,7 +1257,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -1142,7 +1280,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -1165,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -1188,7 +1326,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -1211,7 +1349,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -1234,7 +1372,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1257,7 +1395,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -1280,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
@@ -1303,7 +1441,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -1326,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1349,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
@@ -1372,7 +1510,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -1395,7 +1533,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -1418,7 +1556,7 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -1441,7 +1579,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
@@ -1464,7 +1602,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -1487,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
@@ -1510,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
@@ -1533,7 +1671,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
@@ -1556,7 +1694,7 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
@@ -1579,7 +1717,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
@@ -1602,7 +1740,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
@@ -1625,7 +1763,7 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
@@ -1648,7 +1786,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
@@ -1671,7 +1809,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -1694,7 +1832,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
@@ -1717,7 +1855,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
@@ -1740,7 +1878,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
@@ -1763,7 +1901,7 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>10</v>
@@ -1786,7 +1924,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
@@ -1809,7 +1947,7 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -1832,7 +1970,7 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
@@ -1855,7 +1993,7 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
@@ -1878,7 +2016,7 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="222">
   <si>
     <t>Result</t>
   </si>
@@ -564,6 +564,144 @@
   </si>
   <si>
     <t>Sat Feb 17 22:44:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:15:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:16:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:16:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:16:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:17:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:17:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:18:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:18:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:19:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:19:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:20:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:20:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:21:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:22:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:22:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:23:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:23:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:24:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:25:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:25:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:25:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:26:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:26:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:27:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:27:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:28:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:28:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:29:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:29:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:30:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:31:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:31:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:32:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:32:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:33:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:33:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:34:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:34:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:35:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:35:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:36:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:36:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:37:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:37:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:38:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:38:54 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1119,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1004,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1027,7 +1165,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1050,7 +1188,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1073,7 +1211,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1096,7 +1234,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -1119,7 +1257,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -1142,7 +1280,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -1165,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -1188,7 +1326,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -1211,7 +1349,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -1234,7 +1372,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -1257,7 +1395,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -1280,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -1303,7 +1441,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -1326,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -1349,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -1372,7 +1510,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1395,7 +1533,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -1418,7 +1556,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
@@ -1441,7 +1579,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -1464,7 +1602,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1487,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
@@ -1510,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -1533,7 +1671,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -1556,7 +1694,7 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -1579,7 +1717,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
@@ -1602,7 +1740,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -1625,7 +1763,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
@@ -1648,7 +1786,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
@@ -1671,7 +1809,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
@@ -1694,7 +1832,7 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
@@ -1717,7 +1855,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
@@ -1740,7 +1878,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
@@ -1763,7 +1901,7 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
@@ -1786,7 +1924,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
@@ -1809,7 +1947,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -1832,7 +1970,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
@@ -1855,7 +1993,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
@@ -1878,7 +2016,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
@@ -1901,7 +2039,7 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>10</v>
@@ -1924,7 +2062,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
@@ -1947,7 +2085,7 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -1970,7 +2108,7 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
@@ -1993,7 +2131,7 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
@@ -2016,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4DCB6278-44B4-4958-A1F4-B93D94881201}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C732893E-1BA4-426A-AE00-8A780CCB884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="2220" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="2325"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
   </bookViews>
   <sheets>
-    <sheet name="NumberError" r:id="rId1" sheetId="1"/>
+    <sheet name="NumberError" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="88">
   <si>
     <t>Result</t>
   </si>
@@ -71,9 +72,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Existing Liability w/Notice Number</t>
-  </si>
-  <si>
     <t>Bay Restoration Fee</t>
   </si>
   <si>
@@ -92,623 +90,223 @@
     <t>PTE Tax Electing S Corp</t>
   </si>
   <si>
+    <t>Corporate Income Tax</t>
+  </si>
+  <si>
+    <t>Fiduciary Tax</t>
+  </si>
+  <si>
+    <t>Personal Income Tax</t>
+  </si>
+  <si>
+    <t>Sales &amp; Use Tax</t>
+  </si>
+  <si>
+    <t>Withholding Tax</t>
+  </si>
+  <si>
+    <t>Alcohol Tax</t>
+  </si>
+  <si>
+    <t>0000000000000</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>Notice Number must be 13 digits in length, with a value greater than zero</t>
+  </si>
+  <si>
+    <t>Invoice Number must be 10 or 13 digits in length, with a value greater than zero</t>
+  </si>
+  <si>
+    <t>Admissions and Amusement Tax</t>
+  </si>
+  <si>
+    <t>Estate Tax</t>
+  </si>
+  <si>
+    <t>Motor Fuel Tax</t>
+  </si>
+  <si>
+    <t>Slots License Fee</t>
+  </si>
+  <si>
+    <t>Tobacco Tax</t>
+  </si>
+  <si>
+    <t>Transportation Network Services</t>
+  </si>
+  <si>
+    <t>Unclaimed Property</t>
+  </si>
+  <si>
+    <t>IFTA Tax</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Existing Liability with Notice/Invoice Number</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:48:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:48:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:48:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:48:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:48:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:48:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:49:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:49:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:49:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:49:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:49:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:49:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:49:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:50:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:50:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:50:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:50:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:50:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:50:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:51:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:51:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:51:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:51:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:51:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:51:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:51:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:52:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:52:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:52:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:52:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:52:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:52:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:52:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:53:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:53:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:53:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:53:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:53:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:53:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:54:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:54:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:54:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:54:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:54:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:54:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 17:54:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Notice Number or Invoice Number must be 10, 11, or 13 digits in length, with a value greater than zero</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Corporate Income Tax</t>
-  </si>
-  <si>
-    <t>Fiduciary Tax</t>
-  </si>
-  <si>
-    <t>Personal Income Tax</t>
-  </si>
-  <si>
-    <t>Sales &amp; Use Tax</t>
-  </si>
-  <si>
-    <t>Withholding Tax</t>
-  </si>
-  <si>
-    <t>Alcohol Tax</t>
-  </si>
-  <si>
-    <t>0000000000000</t>
-  </si>
-  <si>
-    <t>0000000000</t>
-  </si>
-  <si>
-    <t>Notice Number must be 13 digits in length, with a value greater than zero</t>
-  </si>
-  <si>
-    <t>Invoice Number must be 10 or 13 digits in length, with a value greater than zero</t>
-  </si>
-  <si>
-    <t>Admissions and Amusement Tax</t>
-  </si>
-  <si>
-    <t>Estate Tax</t>
-  </si>
-  <si>
-    <t>Motor Fuel Tax</t>
-  </si>
-  <si>
-    <t>Slots License Fee</t>
-  </si>
-  <si>
-    <t>Tobacco Tax</t>
-  </si>
-  <si>
-    <t>Transportation Network Services</t>
-  </si>
-  <si>
-    <t>Unclaimed Property</t>
-  </si>
-  <si>
-    <t>IFTA Tax</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:29:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:29:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:29:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:30:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:30:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:30:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:30:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:30:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:30:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:31:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:31:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:31:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:31:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:31:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:31:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:32:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:32:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:32:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:32:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:32:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:32:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:33:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:33:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:33:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:33:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:33:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:33:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:34:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:34:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:34:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:34:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:34:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:34:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:35:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:35:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:35:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:35:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:35:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:36:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:36:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:36:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:36:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:36:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:36:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 17:25:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 17:25:12 EST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:07:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:08:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:08:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:08:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:08:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:08:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:08:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:09:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:09:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:09:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:09:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:09:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:09:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:10:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:10:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:10:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:10:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:10:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:10:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:11:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:11:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:11:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:11:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:11:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:12:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:12:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:12:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:12:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:12:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:12:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:13:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:13:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:13:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:13:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:13:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:13:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:14:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:14:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:14:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:14:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:14:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:15:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:15:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:15:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:15:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:15:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:37:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:37:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:37:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:38:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:38:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:38:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:38:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:38:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:38:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:39:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:39:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:39:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:39:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:39:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:39:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:39:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:40:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:40:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:40:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:40:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:40:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:40:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:41:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:41:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:41:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:41:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:41:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:41:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:41:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:42:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:42:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:42:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:42:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:42:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:42:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:43:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:43:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:43:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:43:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:43:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:43:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:43:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:44:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:44:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:44:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:44:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:15:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:16:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:16:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:16:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:17:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:17:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:18:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:18:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:19:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:19:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:20:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:20:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:21:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:22:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:22:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:23:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:23:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:24:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:25:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:25:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:25:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:26:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:26:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:27:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:27:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:28:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:28:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:29:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:29:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:30:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:31:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:31:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:32:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:32:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:33:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:33:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:34:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:34:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:35:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:35:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:36:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:36:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:37:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:37:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:38:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:38:54 EST 2024</t>
+    <t>Tue Mar 26 18:18:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 18:18:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 26 18:18:40 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -751,20 +349,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -781,10 +379,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -819,7 +417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -871,7 +469,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -982,21 +580,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1013,7 +611,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1065,30 +663,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D66D2-4D2B-4A65-94BC-7BBA002436C7}">
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.85546875" collapsed="true"/>
-    <col min="3" max="3" style="2" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="48.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="53.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="26.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="80.5703125" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" style="2" collapsed="1"/>
+    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" style="2" collapsed="1"/>
+    <col min="7" max="7" width="97.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="27" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1116,1065 +714,2152 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
+    <col min="4" max="4" width="48.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="53.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="80.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C732893E-1BA4-426A-AE00-8A780CCB884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C39F4-074C-44BA-8EDD-5ACF17B0DF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
   </bookViews>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D66D2-4D2B-4A65-94BC-7BBA002436C7}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C61"/>
+    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C39F4-074C-44BA-8EDD-5ACF17B0DF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B81C39F4-074C-44BA-8EDD-5ACF17B0DF9E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="1155"/>
   </bookViews>
   <sheets>
-    <sheet name="NumberError" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="NumberError" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="149">
   <si>
     <t>Result</t>
   </si>
@@ -301,12 +301,196 @@
   </si>
   <si>
     <t>Tue Mar 26 18:18:40 EDT 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:45:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:45:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:45:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:45:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:45:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:45:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:46:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:46:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:46:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:46:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:46:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:46:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:46:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:47:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:47:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:47:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:47:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:47:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:47:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:48:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:48:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:48:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:48:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:48:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:48:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:48:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:49:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:49:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:49:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:49:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:49:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:49:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:50:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:50:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:50:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:50:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:50:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:50:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:51:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:51:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:51:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:51:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:51:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:51:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:51:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:52:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:52:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:52:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:52:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:52:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:52:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:53:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:53:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:53:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:53:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:53:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:53:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:53:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:54:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:54:15 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,20 +533,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -379,10 +563,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -417,7 +601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -469,7 +653,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -580,21 +764,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -611,7 +795,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -663,15 +847,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D66D2-4D2B-4A65-94BC-7BBA002436C7}">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D66D2-4D2B-4A65-94BC-7BBA002436C7}">
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
@@ -679,14 +863,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27" style="2" collapsed="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" style="2" collapsed="1"/>
-    <col min="7" max="7" width="97.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="27" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" style="2" width="27.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="48.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="40.85546875" collapsed="true"/>
+    <col min="6" max="6" style="2" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="97.28515625" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -717,7 +901,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -740,7 +924,7 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -763,7 +947,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -782,6 +966,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -799,6 +989,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -816,6 +1012,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
@@ -833,6 +1035,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
@@ -850,6 +1058,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -867,6 +1081,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
@@ -884,6 +1104,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
@@ -901,6 +1127,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
@@ -918,6 +1150,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
@@ -935,6 +1173,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
@@ -952,6 +1196,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
@@ -969,6 +1219,12 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
@@ -986,6 +1242,12 @@
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1003,6 +1265,12 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1020,6 +1288,12 @@
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
@@ -1037,6 +1311,12 @@
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1054,6 +1334,12 @@
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1071,6 +1357,12 @@
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1088,6 +1380,12 @@
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1105,6 +1403,12 @@
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1122,6 +1426,12 @@
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1139,6 +1449,12 @@
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1156,6 +1472,12 @@
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1173,6 +1495,12 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1190,6 +1518,12 @@
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
       </c>
@@ -1207,6 +1541,12 @@
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
       </c>
@@ -1224,6 +1564,12 @@
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1241,6 +1587,12 @@
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
       </c>
@@ -1258,6 +1610,12 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
@@ -1275,6 +1633,12 @@
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1292,6 +1656,12 @@
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1309,6 +1679,12 @@
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
@@ -1326,6 +1702,12 @@
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
       </c>
@@ -1343,6 +1725,12 @@
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
@@ -1360,6 +1748,12 @@
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
       </c>
@@ -1377,6 +1771,12 @@
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
       </c>
@@ -1394,6 +1794,12 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
@@ -1411,6 +1817,12 @@
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
       </c>
@@ -1428,6 +1840,12 @@
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
       </c>
@@ -1445,6 +1863,12 @@
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
@@ -1462,6 +1886,12 @@
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
@@ -1479,6 +1909,12 @@
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
       </c>
@@ -1496,6 +1932,12 @@
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
@@ -1513,6 +1955,12 @@
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
       </c>
@@ -1530,6 +1978,12 @@
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
       </c>
@@ -1547,6 +2001,12 @@
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
       </c>
@@ -1564,6 +2024,12 @@
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
       </c>
@@ -1581,6 +2047,12 @@
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
       </c>
@@ -1598,6 +2070,12 @@
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
       </c>
@@ -1615,6 +2093,12 @@
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
@@ -1632,6 +2116,12 @@
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>142</v>
+      </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1649,6 +2139,12 @@
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
       </c>
@@ -1666,6 +2162,12 @@
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
       </c>
@@ -1683,6 +2185,12 @@
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
       </c>
@@ -1700,6 +2208,12 @@
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
       </c>
@@ -1717,6 +2231,12 @@
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
+        <v>147</v>
+      </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
       </c>
@@ -1734,6 +2254,12 @@
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s">
+        <v>148</v>
+      </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
@@ -1751,14 +2277,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35:E47"/>
@@ -1766,14 +2292,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
-    <col min="4" max="4" width="48.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="53.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="80.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.85546875" collapsed="true"/>
+    <col min="3" max="3" style="2" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="48.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="53.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="26.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="80.5703125" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2858,8 +3384,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="209">
   <si>
     <t>Result</t>
   </si>
@@ -484,6 +484,186 @@
   </si>
   <si>
     <t>Mon Apr 08 17:54:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:42:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:43:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:43:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:43:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:43:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:43:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:43:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:44:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:44:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:44:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:44:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:44:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:44:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:45:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:45:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:45:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:45:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:45:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:45:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:46:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:46:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:46:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:46:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:46:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:46:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:47:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:47:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:47:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:47:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:47:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:47:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:48:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:48:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:48:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:48:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:48:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:48:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:49:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:49:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:49:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:49:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:49:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:49:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:50:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:50:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:50:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:50:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:50:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:50:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:51:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:51:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:51:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:51:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:51:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:51:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:52:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:52:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:52:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:52:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:52:40 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -901,7 +1081,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -924,7 +1104,7 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -947,7 +1127,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -970,7 +1150,7 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -993,7 +1173,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1016,7 +1196,7 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1039,7 +1219,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1062,7 +1242,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1085,7 +1265,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1108,7 +1288,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1131,7 +1311,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1154,7 +1334,7 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1177,7 +1357,7 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1200,7 +1380,7 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1223,7 +1403,7 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1246,7 +1426,7 @@
         <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1269,7 +1449,7 @@
         <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1292,7 +1472,7 @@
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1315,7 +1495,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1338,7 +1518,7 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1361,7 +1541,7 @@
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1384,7 +1564,7 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1407,7 +1587,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1430,7 +1610,7 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1453,7 +1633,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1476,7 +1656,7 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1499,7 +1679,7 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1522,7 +1702,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -1545,7 +1725,7 @@
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1568,7 +1748,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -1591,7 +1771,7 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -1614,7 +1794,7 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -1637,7 +1817,7 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
@@ -1660,7 +1840,7 @@
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -1683,7 +1863,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -1706,7 +1886,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
@@ -1729,7 +1909,7 @@
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -1752,7 +1932,7 @@
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -1775,7 +1955,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -1798,7 +1978,7 @@
         <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
@@ -1821,7 +2001,7 @@
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -1844,7 +2024,7 @@
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
@@ -1867,7 +2047,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -1890,7 +2070,7 @@
         <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -1913,7 +2093,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -1936,7 +2116,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -1959,7 +2139,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -1982,7 +2162,7 @@
         <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -2005,7 +2185,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2028,7 +2208,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -2051,7 +2231,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2074,7 +2254,7 @@
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -2097,7 +2277,7 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2120,7 +2300,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -2143,7 +2323,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2166,7 +2346,7 @@
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -2189,7 +2369,7 @@
         <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2212,7 +2392,7 @@
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -2235,7 +2415,7 @@
         <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -2258,7 +2438,7 @@
         <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="389">
   <si>
     <t>Result</t>
   </si>
@@ -664,6 +664,546 @@
   </si>
   <si>
     <t>Sat Oct 12 23:52:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:34:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:34:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:35:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:35:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:35:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:35:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:35:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:35:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:36:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:36:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:36:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:36:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:36:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:36:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:37:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:37:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:37:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:37:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:37:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:38:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:38:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:38:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:38:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:38:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:38:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:39:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:39:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:39:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:39:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:39:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:40:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:40:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:40:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:40:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:40:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:40:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:41:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:41:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:41:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:41:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:41:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:42:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:42:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:42:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:42:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:42:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:42:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:43:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:43:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:43:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:43:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:43:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:44:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:44:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:44:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:44:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:44:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:44:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:45:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:45:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:32:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:32:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:32:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:33:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:33:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:33:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:33:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:33:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:33:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:33:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:34:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:34:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:34:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:34:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:34:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:34:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:35:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:35:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:35:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:35:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:35:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:35:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:36:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:36:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:36:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:36:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:36:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:36:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:37:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:37:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:37:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:37:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:37:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:37:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:38:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:38:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:38:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:38:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:38:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:38:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:38:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:39:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:39:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:39:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:39:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:39:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:39:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:40:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:40:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:40:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:40:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:40:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:40:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:41:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:41:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:41:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:41:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:41:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:41:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:42:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:43:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:43:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:43:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:43:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:43:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:44:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:44:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:44:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:44:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:44:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:44:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:45:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:45:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:45:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:45:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:45:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:45:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:46:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:46:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:46:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:46:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:46:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:46:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:46:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:47:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:47:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:47:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:47:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:47:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:47:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:48:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:48:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:48:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:48:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:48:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:48:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:49:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:49:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:49:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:49:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:49:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:49:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:50:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:50:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:50:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:50:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:50:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:50:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:51:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:51:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:51:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:51:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:51:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:51:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:52:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:52:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:52:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:52:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:52:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:52:48 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1621,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>329</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1104,7 +1644,7 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1127,7 +1667,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>331</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1150,7 +1690,7 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>332</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1173,7 +1713,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>333</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1196,7 +1736,7 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>334</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1219,7 +1759,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>335</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1242,7 +1782,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>336</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1265,7 +1805,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>337</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1288,7 +1828,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>338</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1311,7 +1851,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>339</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1334,7 +1874,7 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1357,7 +1897,7 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>341</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1380,7 +1920,7 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>342</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1403,7 +1943,7 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>343</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1426,7 +1966,7 @@
         <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>344</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1449,7 +1989,7 @@
         <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>345</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1472,7 +2012,7 @@
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>346</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1495,7 +2035,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>347</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1518,7 +2058,7 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>348</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1541,7 +2081,7 @@
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>349</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1564,7 +2104,7 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1587,7 +2127,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>351</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1610,7 +2150,7 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>352</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1633,7 +2173,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>353</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1656,7 +2196,7 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1679,7 +2219,7 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>355</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1702,7 +2242,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -1725,7 +2265,7 @@
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>357</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1748,7 +2288,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>358</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -1771,7 +2311,7 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>359</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -1794,7 +2334,7 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -1817,7 +2357,7 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>361</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
@@ -1840,7 +2380,7 @@
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>362</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -1863,7 +2403,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>363</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -1886,7 +2426,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
@@ -1909,7 +2449,7 @@
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -1932,7 +2472,7 @@
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -1955,7 +2495,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -1978,7 +2518,7 @@
         <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
@@ -2001,7 +2541,7 @@
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -2024,7 +2564,7 @@
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
@@ -2047,7 +2587,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -2070,7 +2610,7 @@
         <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -2093,7 +2633,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>373</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -2116,7 +2656,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>374</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -2139,7 +2679,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>375</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -2162,7 +2702,7 @@
         <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>376</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -2185,7 +2725,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2208,7 +2748,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>378</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -2231,7 +2771,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2254,7 +2794,7 @@
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -2277,7 +2817,7 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2300,7 +2840,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>382</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -2323,7 +2863,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>383</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2346,7 +2886,7 @@
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>384</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -2369,7 +2909,7 @@
         <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2392,7 +2932,7 @@
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -2415,7 +2955,7 @@
         <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>387</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -2438,7 +2978,7 @@
         <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>388</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B81C39F4-074C-44BA-8EDD-5ACF17B0DF9E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D88BF29B-2B91-488C-B19F-96FBDCEF61B6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="1155"/>
+    <workbookView windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="NumberError" r:id="rId1" sheetId="2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="204">
   <si>
     <t>Result</t>
   </si>
@@ -294,916 +294,361 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Tue Mar 26 18:18:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 26 18:18:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 26 18:18:40 EDT 2024</t>
+    <t>Thu Nov 07 16:26:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:27:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:38:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:38:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:38:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:38:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:38:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:39:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:39:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:39:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:39:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:39:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:40:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:40:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:40:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:40:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:40:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:40:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:41:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:41:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:41:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:41:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:41:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:41:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:42:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:42:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:42:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:42:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:42:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:42:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:43:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:43:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:43:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:43:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:43:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:44:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:44:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:44:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:44:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:44:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:44:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:45:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:45:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:45:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:45:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:45:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:46:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:46:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:46:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:46:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:46:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:46:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:47:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:47:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:47:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:47:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:47:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:47:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:48:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:48:21 EST 2024</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Mon Apr 08 17:45:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:45:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:45:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:45:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:45:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:45:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:46:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:46:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:46:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:46:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:46:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:46:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:46:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:47:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:47:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:47:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:47:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:47:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:47:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:48:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:48:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:48:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:48:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:48:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:48:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:48:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:49:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:49:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:49:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:49:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:49:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:49:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:50:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:50:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:50:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:50:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:50:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:50:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:51:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:51:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:51:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:51:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:51:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:51:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:51:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:52:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:52:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:52:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:52:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:52:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:52:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:53:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:53:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:53:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:53:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:53:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:53:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:53:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:54:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:54:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:42:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:43:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:43:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:43:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:43:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:43:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:43:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:44:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:44:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:44:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:44:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:44:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:44:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:45:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:45:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:45:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:45:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:45:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:45:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:46:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:46:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:46:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:46:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:46:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:46:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:47:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:47:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:47:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:47:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:47:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:47:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:48:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:48:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:48:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:48:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:48:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:48:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:49:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:49:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:49:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:49:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:49:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:49:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:50:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:50:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:50:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:50:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:50:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:50:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:51:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:51:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:51:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:51:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:51:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:51:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:52:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:52:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:52:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:52:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:52:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:34:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:34:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:35:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:35:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:35:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:35:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:35:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:35:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:36:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:36:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:36:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:36:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:36:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:36:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:37:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:37:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:37:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:37:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:37:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:38:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:38:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:38:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:38:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:38:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:38:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:39:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:39:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:39:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:39:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:39:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:40:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:40:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:40:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:40:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:40:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:40:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:41:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:41:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:41:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:41:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:41:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:42:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:42:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:42:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:42:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:42:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:42:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:43:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:43:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:43:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:43:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:43:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:44:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:44:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:44:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:44:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:44:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:44:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:45:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:45:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:32:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:32:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:32:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:33:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:33:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:33:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:33:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:33:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:33:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:33:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:34:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:34:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:34:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:34:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:34:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:34:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:35:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:35:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:35:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:35:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:35:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:35:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:36:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:36:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:36:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:36:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:36:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:36:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:37:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:37:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:37:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:37:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:37:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:37:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:38:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:38:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:38:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:38:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:38:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:38:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:38:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:39:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:39:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:39:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:39:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:39:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:39:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:40:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:40:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:40:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:40:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:40:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:40:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:41:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:41:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:41:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:41:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:41:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:41:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:42:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:43:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:43:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:43:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:43:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:43:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:44:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:44:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:44:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:44:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:44:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:44:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:45:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:45:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:45:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:45:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:45:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:45:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:46:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:46:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:46:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:46:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:46:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:46:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:46:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:47:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:47:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:47:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:47:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:47:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:47:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:48:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:48:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:48:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:48:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:48:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:48:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:49:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:49:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:49:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:49:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:49:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:49:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:50:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:50:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:50:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:50:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:50:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:50:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:51:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:51:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:51:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:51:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:51:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:51:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:52:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:52:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:52:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:52:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:52:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:52:48 EDT 2024</t>
+    <t>Thu Nov 07 19:55:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:55:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:55:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:55:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:56:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:56:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:56:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:56:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:56:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:57:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:57:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:57:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:57:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:57:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:58:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:58:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:58:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:58:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:58:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:59:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:59:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:59:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:59:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:59:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:59:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:00:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:00:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:00:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:00:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:00:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:01:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:01:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:01:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:01:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:01:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:02:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:02:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:02:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:02:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:02:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:03:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:03:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:03:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:03:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:03:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:03:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:04:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:04:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:04:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:04:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:04:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:05:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:05:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:05:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:05:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:05:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:05:56 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1279,9 +724,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
@@ -1319,7 +764,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -1425,7 +870,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1567,7 +1012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1577,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D66D2-4D2B-4A65-94BC-7BBA002436C7}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1066,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1644,7 +1089,7 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1667,7 +1112,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1690,7 +1135,7 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1713,7 +1158,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>151</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1736,7 +1181,7 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>334</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1759,7 +1204,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1782,7 +1227,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1805,7 +1250,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1828,7 +1273,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1851,7 +1296,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1874,7 +1319,7 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>340</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1897,7 +1342,7 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>341</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1920,7 +1365,7 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1943,7 +1388,7 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1961,12 +1406,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>344</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1984,12 +1429,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>345</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -2007,12 +1452,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>346</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -2030,12 +1475,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -2053,12 +1498,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>348</v>
+        <v>166</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -2076,12 +1521,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -2099,12 +1544,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>350</v>
+        <v>168</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -2122,12 +1567,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>351</v>
+        <v>169</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -2145,12 +1590,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>352</v>
+        <v>170</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -2168,12 +1613,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>353</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -2191,12 +1636,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>354</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -2214,12 +1659,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>355</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -2237,12 +1682,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>356</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -2260,12 +1705,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>357</v>
+        <v>175</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -2283,12 +1728,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>358</v>
+        <v>176</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -2306,12 +1751,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>359</v>
+        <v>177</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -2329,12 +1774,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>360</v>
+        <v>178</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -2352,12 +1797,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>361</v>
+        <v>179</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
@@ -2375,12 +1820,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>362</v>
+        <v>180</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -2398,12 +1843,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>363</v>
+        <v>181</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -2421,12 +1866,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>364</v>
+        <v>182</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
@@ -2444,12 +1889,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -2467,12 +1912,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>366</v>
+        <v>184</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -2490,12 +1935,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -2513,15 +1958,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>36</v>
@@ -2536,15 +1981,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>36</v>
@@ -2559,15 +2004,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>370</v>
+        <v>126</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>36</v>
@@ -2582,12 +2027,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>371</v>
+        <v>186</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -2605,12 +2050,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -2628,12 +2073,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>373</v>
+        <v>188</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -2651,12 +2096,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>374</v>
+        <v>189</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -2674,12 +2119,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -2697,12 +2142,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>376</v>
+        <v>191</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -2720,12 +2165,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>377</v>
+        <v>192</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2743,12 +2188,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>378</v>
+        <v>193</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -2766,12 +2211,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>379</v>
+        <v>194</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2789,12 +2234,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -2812,12 +2257,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>381</v>
+        <v>196</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2835,12 +2280,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -2858,12 +2303,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>383</v>
+        <v>198</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2881,12 +2326,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>384</v>
+        <v>199</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -2904,12 +2349,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>385</v>
+        <v>200</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2927,12 +2372,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>386</v>
+        <v>201</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -2950,12 +2395,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>387</v>
+        <v>202</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -2973,12 +2418,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>388</v>
+        <v>203</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="261">
   <si>
     <t>Result</t>
   </si>
@@ -649,6 +649,177 @@
   </si>
   <si>
     <t>Thu Nov 07 20:05:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:42:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:42:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:42:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:42:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:42:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:43:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:43:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:43:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:43:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:43:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:43:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:44:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:44:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:44:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:44:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:44:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:44:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:45:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:45:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:45:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:45:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:45:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:45:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:46:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:46:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:46:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:46:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:46:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:46:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:47:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:47:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:47:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:47:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:47:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:47:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:48:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:48:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:48:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:48:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:48:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:48:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:49:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:49:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:49:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:49:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:49:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:49:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:50:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:50:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:50:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:50:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:50:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:50:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:51:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:51:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:51:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:51:35 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1237,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1089,7 +1260,7 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1112,7 +1283,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1135,7 +1306,7 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1158,7 +1329,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1181,7 +1352,7 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1204,7 +1375,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1227,7 +1398,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1250,7 +1421,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1273,7 +1444,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1296,7 +1467,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1319,7 +1490,7 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1342,7 +1513,7 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1365,7 +1536,7 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1388,7 +1559,7 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1411,7 +1582,7 @@
         <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1434,7 +1605,7 @@
         <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1457,7 +1628,7 @@
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1480,7 +1651,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1503,7 +1674,7 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1526,7 +1697,7 @@
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1549,7 +1720,7 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1572,7 +1743,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1595,7 +1766,7 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1618,7 +1789,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1641,7 +1812,7 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1664,7 +1835,7 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1687,7 +1858,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -1710,7 +1881,7 @@
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1733,7 +1904,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -1756,7 +1927,7 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -1779,7 +1950,7 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -1802,7 +1973,7 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
@@ -1825,7 +1996,7 @@
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -1848,7 +2019,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -1871,7 +2042,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
@@ -1894,7 +2065,7 @@
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -1917,7 +2088,7 @@
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -1940,7 +2111,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -2032,7 +2203,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -2055,7 +2226,7 @@
         <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -2078,7 +2249,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -2101,7 +2272,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -2124,7 +2295,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -2147,7 +2318,7 @@
         <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -2170,7 +2341,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2193,7 +2364,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -2216,7 +2387,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2239,7 +2410,7 @@
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -2262,7 +2433,7 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2285,7 +2456,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -2308,7 +2479,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2331,7 +2502,7 @@
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -2354,7 +2525,7 @@
         <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2377,7 +2548,7 @@
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -2400,7 +2571,7 @@
         <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -2423,7 +2594,7 @@
         <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="318">
   <si>
     <t>Result</t>
   </si>
@@ -820,6 +820,177 @@
   </si>
   <si>
     <t>Tue Nov 12 17:51:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:48:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:48:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:49:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:49:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:49:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:49:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:49:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:49:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:50:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:50:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:50:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:50:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:50:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:50:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:50:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:51:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:51:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:51:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:51:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:51:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:51:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:52:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:52:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:52:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:52:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:52:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:52:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:52:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:53:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:53:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:53:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:53:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:53:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:53:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:54:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:54:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:54:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:54:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:54:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:54:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:55:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:55:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:55:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:55:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:55:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:55:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:55:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:56:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:56:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:56:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:56:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:56:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:56:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:57:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:57:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:57:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:57:33 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1408,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1260,7 +1431,7 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1283,7 +1454,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1306,7 +1477,7 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1329,7 +1500,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1352,7 +1523,7 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1375,7 +1546,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1398,7 +1569,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1421,7 +1592,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1444,7 +1615,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1467,7 +1638,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1490,7 +1661,7 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1513,7 +1684,7 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1536,7 +1707,7 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1559,7 +1730,7 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1582,7 +1753,7 @@
         <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1605,7 +1776,7 @@
         <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1628,7 +1799,7 @@
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1651,7 +1822,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1674,7 +1845,7 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1697,7 +1868,7 @@
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1720,7 +1891,7 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1743,7 +1914,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1766,7 +1937,7 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1789,7 +1960,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1812,7 +1983,7 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1835,7 +2006,7 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1858,7 +2029,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -1881,7 +2052,7 @@
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1904,7 +2075,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -1927,7 +2098,7 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -1950,7 +2121,7 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -1973,7 +2144,7 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
@@ -1996,7 +2167,7 @@
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -2019,7 +2190,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -2042,7 +2213,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
@@ -2065,7 +2236,7 @@
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -2088,7 +2259,7 @@
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -2111,7 +2282,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -2203,7 +2374,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -2226,7 +2397,7 @@
         <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -2249,7 +2420,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>302</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -2272,7 +2443,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -2295,7 +2466,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -2318,7 +2489,7 @@
         <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -2341,7 +2512,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2364,7 +2535,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -2387,7 +2558,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2410,7 +2581,7 @@
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -2433,7 +2604,7 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2456,7 +2627,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -2479,7 +2650,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2502,7 +2673,7 @@
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -2525,7 +2696,7 @@
         <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2548,7 +2719,7 @@
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -2571,7 +2742,7 @@
         <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -2594,7 +2765,7 @@
         <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D88BF29B-2B91-488C-B19F-96FBDCEF61B6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB05F4-2AA3-4AEB-8BC1-5DCA75B206C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="-120"/>
+    <workbookView xWindow="1695" yWindow="645" windowWidth="23235" windowHeight="14535" activeTab="1" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
   </bookViews>
   <sheets>
-    <sheet name="NumberError" r:id="rId1" sheetId="2"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="1"/>
+    <sheet name="NumberError" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="145">
   <si>
     <t>Result</t>
   </si>
@@ -294,534 +294,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Thu Nov 07 16:26:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:27:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:38:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:38:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:38:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:38:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:38:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:39:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:39:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:39:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:39:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:39:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:40:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:40:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:40:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:40:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:40:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:40:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:41:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:41:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:41:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:41:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:41:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:41:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:42:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:42:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:42:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:42:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:42:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:42:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:43:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:43:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:43:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:43:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:43:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:44:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:44:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:44:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:44:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:44:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:44:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:45:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:45:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:45:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:45:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:45:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:46:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:46:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:46:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:46:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:46:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:46:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:47:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:47:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:47:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:47:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:47:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:47:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:48:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:48:21 EST 2024</t>
-  </si>
-  <si>
-    <t>DoNotRun</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:55:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:55:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:55:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:55:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:56:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:56:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:56:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:56:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:56:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:57:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:57:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:57:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:57:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:57:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:58:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:58:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:58:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:58:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:58:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:59:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:59:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:59:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:59:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:59:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:59:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:00:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:00:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:00:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:00:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:00:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:01:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:01:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:01:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:01:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:01:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:02:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:02:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:02:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:02:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:02:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:03:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:03:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:03:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:03:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:03:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:03:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:04:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:04:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:04:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:04:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:04:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:05:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:05:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:05:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:05:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:05:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:05:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:42:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:42:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:42:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:42:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:42:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:43:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:43:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:43:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:43:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:43:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:43:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:44:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:44:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:44:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:44:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:44:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:44:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:45:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:45:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:45:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:45:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:45:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:45:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:46:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:46:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:46:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:46:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:46:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:46:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:47:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:47:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:47:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:47:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:47:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:47:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:48:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:48:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:48:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:48:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:48:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:48:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:49:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:49:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:49:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:49:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:49:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:49:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:50:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:50:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:50:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:50:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:50:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:50:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:51:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:51:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:51:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:51:35 EST 2024</t>
-  </si>
-  <si>
     <t>Tue Jan 28 21:48:45 EST 2025</t>
   </si>
   <si>
@@ -991,13 +463,21 @@
   </si>
   <si>
     <t>Tue Jan 28 21:57:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 13:20:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 13:20:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 13:20:58 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1040,20 +520,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1070,10 +550,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1108,7 +588,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1160,7 +640,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1271,21 +751,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1302,7 +782,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1354,30 +834,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D66D2-4D2B-4A65-94BC-7BBA002436C7}">
-  <dimension ref="A1:H61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D66D2-4D2B-4A65-94BC-7BBA002436C7}">
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C43"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" style="2" width="27.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="48.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="40.85546875" collapsed="true"/>
-    <col min="6" max="6" style="2" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="97.28515625" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="27.0" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" style="2" collapsed="1"/>
+    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" style="2" collapsed="1"/>
+    <col min="7" max="7" width="97.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="27" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1408,7 +888,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1431,7 +911,7 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1454,7 +934,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1477,7 +957,7 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1500,7 +980,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1523,7 +1003,7 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1546,7 +1026,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1569,7 +1049,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1592,7 +1072,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1615,7 +1095,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1638,7 +1118,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1661,7 +1141,7 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1684,7 +1164,7 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1707,7 +1187,7 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1730,7 +1210,7 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1753,7 +1233,7 @@
         <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1776,7 +1256,7 @@
         <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1799,7 +1279,7 @@
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1822,7 +1302,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1845,7 +1325,7 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1868,7 +1348,7 @@
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1891,7 +1371,7 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1914,7 +1394,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1937,7 +1417,7 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1960,7 +1440,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>285</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1983,7 +1463,7 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>286</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -2006,7 +1486,7 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -2029,7 +1509,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -2052,7 +1532,7 @@
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -2075,7 +1555,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -2098,7 +1578,7 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -2121,7 +1601,7 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>292</v>
+        <v>116</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -2144,7 +1624,7 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
@@ -2167,7 +1647,7 @@
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>118</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -2190,7 +1670,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>295</v>
+        <v>119</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -2213,7 +1693,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>120</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
@@ -2236,7 +1716,7 @@
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>297</v>
+        <v>121</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -2259,7 +1739,7 @@
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -2282,7 +1762,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>299</v>
+        <v>123</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -2305,10 +1785,10 @@
         <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>36</v>
@@ -2328,10 +1808,10 @@
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>36</v>
@@ -2351,10 +1831,10 @@
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>36</v>
@@ -2374,7 +1854,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -2397,7 +1877,7 @@
         <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -2420,7 +1900,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>302</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -2443,7 +1923,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -2466,7 +1946,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>304</v>
+        <v>128</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -2489,7 +1969,7 @@
         <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -2512,7 +1992,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2535,7 +2015,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>307</v>
+        <v>131</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -2558,7 +2038,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>308</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2581,7 +2061,7 @@
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -2604,7 +2084,7 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2627,7 +2107,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -2650,7 +2130,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>312</v>
+        <v>136</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2673,7 +2153,7 @@
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>313</v>
+        <v>137</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -2696,7 +2176,7 @@
         <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>314</v>
+        <v>138</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2719,7 +2199,7 @@
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -2742,7 +2222,7 @@
         <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>316</v>
+        <v>140</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -2765,7 +2245,7 @@
         <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>317</v>
+        <v>141</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
@@ -2784,29 +2264,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E35" sqref="E35:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.85546875" collapsed="true"/>
-    <col min="3" max="3" style="2" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="48.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="53.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="26.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="80.5703125" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
+    <col min="4" max="4" width="48.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="53.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="80.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3891,8 +3371,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB05F4-2AA3-4AEB-8BC1-5DCA75B206C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{169BEF15-0F7F-4595-AE76-ACCD99B79C2D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="645" windowWidth="23235" windowHeight="14535" activeTab="1" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}"/>
+    <workbookView windowHeight="16920" windowWidth="30960" xWindow="30600" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="NumberError" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="NumberError" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="214">
   <si>
     <t>Result</t>
   </si>
@@ -472,12 +472,220 @@
   </si>
   <si>
     <t>Thu Feb 06 13:20:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Digital Advertising Gross Revenues</t>
+  </si>
+  <si>
+    <t>PTE Composite</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:57:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:57:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:57:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:57:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:58:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:58:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:58:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:58:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:58:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:58:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:58:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:59:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:59:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:59:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:59:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:59:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:59:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:00:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:00:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:00:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:00:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:00:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:00:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:00:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:01:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:01:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:01:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:01:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:01:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:01:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:02:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:02:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:02:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:02:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:02:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:02:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:02:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:03:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:03:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:03:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:03:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:03:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:03:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:04:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:04:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:04:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:04:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:04:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:04:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:05:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:05:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:05:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:05:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:05:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:05:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:05:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:06:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:06:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:06:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:06:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:06:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:06:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:07:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:07:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:07:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:07:27 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,20 +728,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -550,10 +758,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -588,7 +796,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -640,7 +848,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -751,21 +959,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -782,7 +990,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -834,30 +1042,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D66D2-4D2B-4A65-94BC-7BBA002436C7}">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D66D2-4D2B-4A65-94BC-7BBA002436C7}">
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27" style="2" collapsed="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" style="2" collapsed="1"/>
-    <col min="7" max="7" width="97.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="27" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" style="2" width="27.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="48.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="40.85546875" collapsed="true"/>
+    <col min="6" max="6" style="2" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="97.28515625" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,7 +1096,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -911,7 +1119,7 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -934,7 +1142,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -957,7 +1165,7 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -980,7 +1188,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1003,7 +1211,7 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1026,7 +1234,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1049,7 +1257,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1072,7 +1280,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1095,7 +1303,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1118,7 +1326,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1141,7 +1349,7 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1164,7 +1372,7 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1187,7 +1395,7 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1210,7 +1418,7 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1233,7 +1441,7 @@
         <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1256,7 +1464,7 @@
         <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1279,7 +1487,7 @@
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1302,7 +1510,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1325,7 +1533,7 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1348,7 +1556,7 @@
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1371,7 +1579,7 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1394,7 +1602,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1417,7 +1625,7 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1440,7 +1648,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1463,7 +1671,7 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1486,7 +1694,7 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1509,7 +1717,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -1532,7 +1740,7 @@
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1555,7 +1763,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -1578,7 +1786,7 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -1601,7 +1809,7 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -1624,7 +1832,7 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
@@ -1647,7 +1855,7 @@
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -1670,7 +1878,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -1693,7 +1901,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
@@ -1716,7 +1924,7 @@
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -1739,7 +1947,7 @@
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -1762,7 +1970,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -1785,7 +1993,7 @@
         <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
@@ -1808,7 +2016,7 @@
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -1831,7 +2039,7 @@
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
@@ -1854,7 +2062,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -1877,7 +2085,7 @@
         <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -1900,7 +2108,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -1923,7 +2131,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -1946,7 +2154,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -1969,7 +2177,7 @@
         <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -1992,7 +2200,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2015,7 +2223,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -2038,7 +2246,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2061,7 +2269,7 @@
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -2084,7 +2292,7 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2107,7 +2315,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -2130,7 +2338,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2153,7 +2361,7 @@
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -2176,7 +2384,7 @@
         <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2199,7 +2407,7 @@
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -2222,7 +2430,7 @@
         <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -2245,7 +2453,7 @@
         <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
@@ -2263,30 +2471,168 @@
         <v>83</v>
       </c>
     </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6057E2E3-7C58-4120-B02D-BA3B396B9DA0}">
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:E47"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
-    <col min="4" max="4" width="48.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="53.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="80.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.85546875" collapsed="true"/>
+    <col min="3" max="3" style="2" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="48.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="53.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="26.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="80.5703125" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3371,8 +3717,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="280">
   <si>
     <t>Result</t>
   </si>
@@ -679,6 +679,204 @@
   </si>
   <si>
     <t>Tue Feb 11 20:07:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:38:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:38:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:38:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:38:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:39:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:39:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:39:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:39:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:39:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:40:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:40:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:40:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:40:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:40:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:40:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:41:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:41:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:41:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:41:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:41:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:41:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:42:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:42:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:42:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:42:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:42:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:42:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:43:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:43:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:43:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:43:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:43:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:43:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:44:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:44:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:44:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:44:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:44:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:45:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:45:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:45:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:45:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:45:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:45:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:46:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:46:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:46:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:46:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:46:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:46:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:47:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:47:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:47:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:47:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:47:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:47:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:48:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:48:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:48:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:48:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:48:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:48:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:49:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:49:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:49:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:49:40 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1294,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1119,7 +1317,7 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1142,7 +1340,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1165,7 +1363,7 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1188,7 +1386,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1211,7 +1409,7 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1234,7 +1432,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1257,7 +1455,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1280,7 +1478,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1303,7 +1501,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1326,7 +1524,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1349,7 +1547,7 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1372,7 +1570,7 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1395,7 +1593,7 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1418,7 +1616,7 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1441,7 +1639,7 @@
         <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1464,7 +1662,7 @@
         <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1487,7 +1685,7 @@
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1510,7 +1708,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1533,7 +1731,7 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1556,7 +1754,7 @@
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1579,7 +1777,7 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1602,7 +1800,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1625,7 +1823,7 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1648,7 +1846,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1671,7 +1869,7 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1694,7 +1892,7 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1717,7 +1915,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -1740,7 +1938,7 @@
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1763,7 +1961,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -1786,7 +1984,7 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -1809,7 +2007,7 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -1832,7 +2030,7 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
@@ -1855,7 +2053,7 @@
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -1878,7 +2076,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -1901,7 +2099,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
@@ -1924,7 +2122,7 @@
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -1947,7 +2145,7 @@
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -1970,7 +2168,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -1993,7 +2191,7 @@
         <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
@@ -2016,7 +2214,7 @@
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -2039,7 +2237,7 @@
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
@@ -2062,7 +2260,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -2085,7 +2283,7 @@
         <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -2108,7 +2306,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -2131,7 +2329,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -2154,7 +2352,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -2177,7 +2375,7 @@
         <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -2200,7 +2398,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2223,7 +2421,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -2246,7 +2444,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2269,7 +2467,7 @@
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -2292,7 +2490,7 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2315,7 +2513,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -2338,7 +2536,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2361,7 +2559,7 @@
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -2384,7 +2582,7 @@
         <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2407,7 +2605,7 @@
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -2430,7 +2628,7 @@
         <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -2453,7 +2651,7 @@
         <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
@@ -2476,7 +2674,7 @@
         <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>10</v>
@@ -2499,7 +2697,7 @@
         <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>10</v>
@@ -2522,7 +2720,7 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
@@ -2545,7 +2743,7 @@
         <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>10</v>
@@ -2568,7 +2766,7 @@
         <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -2591,7 +2789,7 @@
         <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{169BEF15-0F7F-4595-AE76-ACCD99B79C2D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D8FBDE90-77F9-471E-A46F-C9502CC40902}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="16920" windowWidth="30960" xWindow="30600" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="-120"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{466F649A-3E53-458C-A455-8A6BC3303076}" yWindow="-3945"/>
   </bookViews>
   <sheets>
     <sheet name="NumberError" r:id="rId1" sheetId="2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="215">
   <si>
     <t>Result</t>
   </si>
@@ -294,589 +294,394 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Tue Jan 28 21:48:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:48:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:49:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:49:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:49:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:49:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:49:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:49:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:50:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:50:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:50:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:50:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:50:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:50:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:50:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:51:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:51:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:51:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:51:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:51:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:51:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:52:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:52:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:52:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:52:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:52:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:52:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:52:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:53:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:53:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:53:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:53:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:53:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:53:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:54:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:54:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:54:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:54:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:54:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:54:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:55:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:55:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:55:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:55:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:55:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:55:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:55:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:56:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:56:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:56:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:56:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:56:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:56:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:57:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:57:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:57:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:57:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 13:20:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 13:20:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 13:20:58 EST 2025</t>
-  </si>
-  <si>
     <t>Digital Advertising Gross Revenues</t>
   </si>
   <si>
     <t>PTE Composite</t>
   </si>
   <si>
+    <t>Mon Feb 24 22:38:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:38:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:38:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:38:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:39:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:39:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:39:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:39:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:39:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:40:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:40:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:40:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:40:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:40:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:40:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:41:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:41:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:41:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:41:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:41:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:41:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:42:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:42:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:42:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:42:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:42:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:42:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:43:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:43:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:43:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:43:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:43:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:43:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:44:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:44:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:44:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:44:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:44:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:45:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:45:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:45:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:45:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:45:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:45:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:46:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:46:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:46:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:46:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:46:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:46:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:47:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:47:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:47:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:47:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:47:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:47:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:48:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:48:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:48:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:48:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:48:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:48:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:49:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:49:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:49:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:49:40 EST 2025</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Tue Feb 11 19:57:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:57:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:57:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:57:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:58:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:58:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:58:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:58:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:58:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:58:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:58:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:59:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:59:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:59:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:59:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:59:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 19:59:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:00:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:00:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:00:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:00:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:00:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:00:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:00:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:01:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:01:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:01:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:01:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:01:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:01:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:02:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:02:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:02:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:02:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:02:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:02:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:02:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:03:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:03:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:03:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:03:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:03:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:03:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:04:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:04:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:04:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:04:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:04:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:04:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:05:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:05:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:05:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:05:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:05:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:05:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:05:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:06:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:06:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:06:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:06:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:06:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:06:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:07:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:07:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:07:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:07:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:38:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:38:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:38:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:38:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:39:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:39:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:39:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:39:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:39:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:40:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:40:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:40:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:40:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:40:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:40:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:41:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:41:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:41:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:41:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:41:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:41:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:42:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:42:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:42:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:42:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:42:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:42:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:43:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:43:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:43:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:43:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:43:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:43:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:44:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:44:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:44:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:44:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:44:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:45:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:45:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:45:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:45:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:45:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:45:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:46:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:46:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:46:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:46:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:46:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:46:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:47:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:47:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:47:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:47:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:47:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:47:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:48:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:48:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:48:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:48:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:48:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:48:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:49:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:49:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:49:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:49:40 EST 2025</t>
+    <t>Sat Oct 04 16:09:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:09:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:09:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:09:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:09:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:09:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:09:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:09:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:09:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:10:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:11:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:12:56 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -1250,23 +1055,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D66D2-4D2B-4A65-94BC-7BBA002436C7}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C67"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="6.54296875" collapsed="true"/>
     <col min="2" max="2" style="2" width="27.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="48.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="40.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.26953125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="48.7265625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="40.81640625" collapsed="true"/>
     <col min="6" max="6" style="2" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="97.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="97.26953125" collapsed="true"/>
     <col min="8" max="16384" style="2" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,12 +1094,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1312,12 +1117,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1335,12 +1140,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1358,12 +1163,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1381,12 +1186,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1404,12 +1209,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1427,12 +1232,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1450,12 +1255,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1473,12 +1278,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1496,12 +1301,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1519,12 +1324,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1542,12 +1347,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1565,12 +1370,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1588,12 +1393,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1611,12 +1416,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1634,12 +1439,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1657,12 +1462,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1680,12 +1485,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1703,12 +1508,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1726,12 +1531,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1749,12 +1554,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1772,12 +1577,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1795,12 +1600,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1818,12 +1623,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1841,12 +1646,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1864,12 +1669,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1887,12 +1692,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1910,12 +1715,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -1933,12 +1738,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1956,12 +1761,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -1979,12 +1784,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -2002,12 +1807,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -2025,12 +1830,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
@@ -2048,12 +1853,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -2071,12 +1876,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -2094,12 +1899,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
@@ -2117,12 +1922,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -2140,12 +1945,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -2163,12 +1968,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -2186,15 +1991,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>36</v>
@@ -2209,15 +2014,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>36</v>
@@ -2232,15 +2037,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>36</v>
@@ -2255,12 +2060,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -2278,12 +2083,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -2301,12 +2106,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -2324,12 +2129,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -2347,12 +2152,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -2370,12 +2175,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -2393,12 +2198,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2416,12 +2221,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -2439,12 +2244,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2462,12 +2267,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -2485,12 +2290,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2508,12 +2313,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -2531,12 +2336,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2554,12 +2359,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -2577,12 +2382,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2600,15 +2405,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>36</v>
@@ -2623,15 +2428,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>36</v>
@@ -2646,15 +2451,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>273</v>
+        <v>146</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>36</v>
@@ -2669,12 +2474,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>10</v>
@@ -2683,7 +2488,7 @@
         <v>36</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2692,12 +2497,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>10</v>
@@ -2706,7 +2511,7 @@
         <v>36</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>7</v>
@@ -2715,12 +2520,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
@@ -2729,7 +2534,7 @@
         <v>36</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>24</v>
@@ -2738,12 +2543,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>10</v>
@@ -2752,7 +2557,7 @@
         <v>36</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2761,12 +2566,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -2775,7 +2580,7 @@
         <v>36</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>7</v>
@@ -2784,12 +2589,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>10</v>
@@ -2798,7 +2603,7 @@
         <v>36</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>24</v>
@@ -2821,19 +2626,19 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.85546875" collapsed="true"/>
-    <col min="3" max="3" style="2" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="48.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="53.5703125" collapsed="true"/>
+    <col min="1" max="1" style="2" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.81640625" collapsed="true"/>
+    <col min="3" max="3" style="2" width="9.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="48.1796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="53.54296875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="2" width="26.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="80.5703125" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="80.54296875" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2879,7 +2684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2902,7 +2707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2925,7 +2730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2948,7 +2753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2971,7 +2776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2994,7 +2799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -3017,7 +2822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -3040,7 +2845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3063,7 +2868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3086,7 +2891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3109,7 +2914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -3132,7 +2937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3155,7 +2960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3178,7 +2983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -3201,7 +3006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -3224,7 +3029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3247,7 +3052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -3270,7 +3075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3293,7 +3098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -3316,7 +3121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3339,7 +3144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3362,7 +3167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3385,7 +3190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3408,7 +3213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3431,7 +3236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3454,7 +3259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -3477,7 +3282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3500,7 +3305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -3523,7 +3328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3546,7 +3351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3569,7 +3374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3592,7 +3397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -3615,7 +3420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3638,7 +3443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3661,7 +3466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3684,7 +3489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -3707,7 +3512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -3730,7 +3535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -3753,7 +3558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -3776,7 +3581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -3799,7 +3604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -3822,7 +3627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -3845,7 +3650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -3868,7 +3673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -3891,7 +3696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>35</v>
       </c>

--- a/KatalonData/RADTestData/EL-NumberValidation.xlsx
+++ b/KatalonData/RADTestData/EL-NumberValidation.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="275">
   <si>
     <t>Result</t>
   </si>
@@ -682,6 +682,186 @@
   </si>
   <si>
     <t>Sat Oct 04 16:12:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:13:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:14:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:14:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:14:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:14:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:14:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:14:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:14:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:14:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:14:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:14:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:14:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:15:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:15:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:15:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:15:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:15:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:15:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:15:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:15:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:15:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:15:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:15:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:16:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:16:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:16:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:16:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:16:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:16:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:16:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:16:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:16:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:16:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:16:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:17:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:17:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:17:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:17:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:17:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:17:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:17:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:17:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:17:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:17:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:17:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:18:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:18:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:18:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:18:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:18:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:18:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:18:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:18:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:18:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:18:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:18:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:19:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:19:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:19:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 11:19:20 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1279,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1122,7 +1302,7 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1145,7 +1325,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1168,7 +1348,7 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1191,7 +1371,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1214,7 +1394,7 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1237,7 +1417,7 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1260,7 +1440,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1283,7 +1463,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1306,7 +1486,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1329,7 +1509,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1352,7 +1532,7 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1375,7 +1555,7 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1398,7 +1578,7 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1421,7 +1601,7 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1444,7 +1624,7 @@
         <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -1467,7 +1647,7 @@
         <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1490,7 +1670,7 @@
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1513,7 +1693,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1536,7 +1716,7 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1559,7 +1739,7 @@
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1582,7 +1762,7 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1605,7 +1785,7 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1628,7 +1808,7 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1651,7 +1831,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1674,7 +1854,7 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1697,7 +1877,7 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1720,7 +1900,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -1743,7 +1923,7 @@
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1766,7 +1946,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -1789,7 +1969,7 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -1812,7 +1992,7 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -1835,7 +2015,7 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
@@ -1858,7 +2038,7 @@
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -1881,7 +2061,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -1904,7 +2084,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
@@ -1927,7 +2107,7 @@
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -1950,7 +2130,7 @@
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -1973,7 +2153,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -2065,7 +2245,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -2088,7 +2268,7 @@
         <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -2111,7 +2291,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -2134,7 +2314,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
@@ -2157,7 +2337,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -2180,7 +2360,7 @@
         <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -2203,7 +2383,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2226,7 +2406,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -2249,7 +2429,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2272,7 +2452,7 @@
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -2295,7 +2475,7 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2318,7 +2498,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -2341,7 +2521,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2364,7 +2544,7 @@
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -2387,7 +2567,7 @@
         <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2479,7 +2659,7 @@
         <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>10</v>
@@ -2502,7 +2682,7 @@
         <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>10</v>
@@ -2525,7 +2705,7 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
@@ -2548,7 +2728,7 @@
         <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>10</v>
@@ -2571,7 +2751,7 @@
         <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -2594,7 +2774,7 @@
         <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>10</v>
